--- a/Data/Auditor_4.xlsx
+++ b/Data/Auditor_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\APF\Atendimento ao Associado\LANÇAMENTO DE ATENDIMENTO DIARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altaneiro.analista01\Desktop\GitClones\painel_de_atendimentos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9AC3AE-3494-4504-8E3E-FF1111836531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9428892-2BED-4105-B7A3-7BF6F1C8060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
